--- a/Data Input Sheets/Trades and Gift Index.xlsx
+++ b/Data Input Sheets/Trades and Gift Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="008D163D6C58172319EDC8A3933A59F6C54CD91E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B32B6397-A46E-4D47-A09F-AD0ACEEF10C2}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="008D163D6C58172319EDC8A3933A59F6C54CD91E" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F495E734-E12D-4497-B96A-07EAE6D3284A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DA44EA7D-0CF0-4A72-92C8-567265E58406}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Location of Trade</t>
   </si>
@@ -277,6 +277,33 @@
   </si>
   <si>
     <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>Dank</t>
+  </si>
+  <si>
+    <t>Dankchomp</t>
+  </si>
+  <si>
+    <t>Dankzard</t>
+  </si>
+  <si>
+    <t>Dankslash</t>
+  </si>
+  <si>
+    <t>Danktails</t>
+  </si>
+  <si>
+    <t>Dankmence</t>
+  </si>
+  <si>
+    <t>Dankchu</t>
+  </si>
+  <si>
+    <t>Pidgey</t>
+  </si>
+  <si>
+    <t>Ratatta</t>
   </si>
 </sst>
 </file>
@@ -628,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F18673-EF8E-4799-9F14-71C27F860585}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1068,72 @@
         <v>79</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Input Sheets/Trades and Gift Index.xlsx
+++ b/Data Input Sheets/Trades and Gift Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="008D163D6C58172319EDC8A3933A59F6C54CD91E" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F495E734-E12D-4497-B96A-07EAE6D3284A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="008D163D6C58172319EDC8A3933A59F6C54CD91E" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{4AEF2DCF-4A02-4587-A6A9-CF2C0F912215}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DA44EA7D-0CF0-4A72-92C8-567265E58406}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Location of Trade</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Cinnabar Mansion</t>
   </si>
   <si>
-    <t>Celadon Dinner</t>
-  </si>
-  <si>
     <t>Pay 50,000</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t xml:space="preserve">N </t>
   </si>
   <si>
-    <t>Dank</t>
-  </si>
-  <si>
     <t>Dankchomp</t>
   </si>
   <si>
@@ -304,6 +298,51 @@
   </si>
   <si>
     <t>Ratatta</t>
+  </si>
+  <si>
+    <t>Hoenn Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Sinnoh Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Unova Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Kalos Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Alolan Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Partner Cap Pikachu</t>
+  </si>
+  <si>
+    <t>Dank - ???</t>
+  </si>
+  <si>
+    <t>Must defeat Giovanni</t>
+  </si>
+  <si>
+    <t>Sevii Islands - Warehouse</t>
+  </si>
+  <si>
+    <t>Celadon Diner</t>
+  </si>
+  <si>
+    <t>Rock Tunnel</t>
+  </si>
+  <si>
+    <t>Route 25 after Volcano Badge</t>
+  </si>
+  <si>
+    <t>Seafoam Islands</t>
+  </si>
+  <si>
+    <t>Ecruteak City</t>
+  </si>
+  <si>
+    <t>Olivine City</t>
   </si>
 </sst>
 </file>
@@ -655,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F18673-EF8E-4799-9F14-71C27F860585}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -681,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -700,7 +739,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -711,7 +750,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -722,7 +761,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -733,7 +772,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -744,7 +783,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -755,7 +794,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -765,6 +804,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -781,6 +823,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -811,6 +856,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -819,6 +867,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -828,16 +879,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -858,16 +912,19 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -888,7 +945,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -899,10 +956,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -910,7 +967,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -919,12 +976,12 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -932,10 +989,13 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -946,18 +1006,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -968,170 +1028,218 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
-        <v>90</v>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
